--- a/public/uploads/parcours_resultats.xlsx
+++ b/public/uploads/parcours_resultats.xlsx
@@ -1,48 +1,126 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\symfony-winter-contest\public\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715DEF51-A006-44CB-9E60-BB5938F8D952}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B81C5D4-0590-4D6B-AFAF-FE8A5EE5DA67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="645" windowWidth="18000" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="630" yWindow="495" windowWidth="22590" windowHeight="11415" xr2:uid="{A2BB81C9-9CA3-43A5-A119-25B82A2C596C}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>result1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>Mulhouse</t>
+  </si>
+  <si>
+    <t>Isa</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Nebo</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>Jerome</t>
+  </si>
+  <si>
+    <t>Maera</t>
+  </si>
+  <si>
+    <t>Jojo</t>
+  </si>
+  <si>
+    <t>Ilias</t>
+  </si>
+  <si>
+    <t>Irina</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Lion</t>
+  </si>
+  <si>
+    <t>Tulouse</t>
+  </si>
+  <si>
+    <t>Perpignan</t>
+  </si>
+  <si>
+    <t>participants_id</t>
+  </si>
+  <si>
+    <t>categories_id</t>
+  </si>
+  <si>
+    <t>competitions_id</t>
+  </si>
+  <si>
+    <t>resultat1</t>
   </si>
   <si>
     <t>resultat2</t>
   </si>
   <si>
     <t>resultat_final</t>
+  </si>
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>ville</t>
+  </si>
+  <si>
+    <t>Bea</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -74,7 +152,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -93,7 +171,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,7 +187,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -121,7 +199,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -138,7 +216,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -168,12 +246,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -203,6 +298,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -354,140 +466,303 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF053B18-101F-47DE-9D22-6266EEF0E94A}">
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.4780092592592592E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>3.4722222222222224E-2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>7.6388888888888895E-2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>7.6388888888888895E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="E3" s="1">
         <v>6.9444444444444434E-2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="F3" s="1">
         <v>6.9444444444444434E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="E4" s="1">
         <v>0.1111111111111111</v>
       </c>
-      <c r="C4" s="1">
+      <c r="F4" s="1">
         <v>0.1111111111111111</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
         <v>0.125</v>
       </c>
-      <c r="B5" s="1">
+      <c r="E5" s="1">
         <v>0.15277777777777776</v>
       </c>
-      <c r="C5" s="1">
+      <c r="F5" s="1">
         <v>0.15277777777777776</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
         <v>0.16666666666666666</v>
       </c>
-      <c r="B6" s="1">
+      <c r="E6" s="1">
         <v>0.19444444444444445</v>
       </c>
-      <c r="C6" s="1">
+      <c r="F6" s="1">
         <v>0.19444444444444445</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
         <v>0.20833333333333334</v>
       </c>
-      <c r="B7" s="1">
+      <c r="E7" s="1">
         <v>0.23611111111111113</v>
       </c>
-      <c r="C7" s="1">
+      <c r="F7" s="1">
         <v>0.23611111111111113</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
         <v>0.25</v>
       </c>
-      <c r="B8" s="1">
+      <c r="E8" s="1">
         <v>0.27777777777777779</v>
       </c>
-      <c r="C8" s="1">
+      <c r="F8" s="1">
         <v>0.27777777777777779</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
         <v>0.29166666666666669</v>
       </c>
-      <c r="B9" s="1">
+      <c r="E9" s="1">
         <v>0.31944444444444448</v>
       </c>
-      <c r="C9" s="1">
+      <c r="F9" s="1">
         <v>0.31944444444444448</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B10" s="1">
+      <c r="E10" s="1">
         <v>0.3611111111111111</v>
       </c>
-      <c r="C10" s="1">
+      <c r="F10" s="1">
         <v>0.3611111111111111</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
         <v>0.375</v>
       </c>
-      <c r="B11" s="1">
+      <c r="E11" s="1">
         <v>0.40277777777777773</v>
       </c>
-      <c r="C11" s="1">
+      <c r="F11" s="1">
         <v>0.40277777777777773</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/uploads/parcours_resultats.xlsx
+++ b/public/uploads/parcours_resultats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\symfony-winter-contest\public\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B81C5D4-0590-4D6B-AFAF-FE8A5EE5DA67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A25509-2408-4ACF-89A4-CC65E4F9BD35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="630" yWindow="495" windowWidth="22590" windowHeight="11415" xr2:uid="{A2BB81C9-9CA3-43A5-A119-25B82A2C596C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>Mulhouse</t>
   </si>
@@ -115,6 +115,66 @@
   </si>
   <si>
     <t>Bea</t>
+  </si>
+  <si>
+    <t>"00:50:05"</t>
+  </si>
+  <si>
+    <t>"01:00:00"</t>
+  </si>
+  <si>
+    <t>"02:00:00"</t>
+  </si>
+  <si>
+    <t>"03:00:00"</t>
+  </si>
+  <si>
+    <t>"04:00:00"</t>
+  </si>
+  <si>
+    <t>"05:00:00"</t>
+  </si>
+  <si>
+    <t>"06:00:00"</t>
+  </si>
+  <si>
+    <t>"07:00:00"</t>
+  </si>
+  <si>
+    <t>"08:00:00"</t>
+  </si>
+  <si>
+    <t>"09:00:00"</t>
+  </si>
+  <si>
+    <t>"01:50:00"</t>
+  </si>
+  <si>
+    <t>"01:40:00"</t>
+  </si>
+  <si>
+    <t>"02:40:00"</t>
+  </si>
+  <si>
+    <t>"03:40:00"</t>
+  </si>
+  <si>
+    <t>"04:40:00"</t>
+  </si>
+  <si>
+    <t>"05:40:00"</t>
+  </si>
+  <si>
+    <t>"06:40:00"</t>
+  </si>
+  <si>
+    <t>"07:40:00"</t>
+  </si>
+  <si>
+    <t>"08:40:00"</t>
+  </si>
+  <si>
+    <t>"09:40:00"</t>
   </si>
 </sst>
 </file>
@@ -152,7 +212,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,10 +530,15 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -511,14 +576,14 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
-        <v>3.4780092592592592E-2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>7.6388888888888895E-2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>7.6388888888888895E-2</v>
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -537,14 +602,14 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>6.9444444444444434E-2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>6.9444444444444434E-2</v>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
@@ -563,14 +628,14 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.1111111111111111</v>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G4" t="s">
         <v>2</v>
@@ -589,14 +654,14 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.15277777777777776</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.15277777777777776</v>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G5" t="s">
         <v>3</v>
@@ -615,14 +680,14 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.19444444444444445</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.19444444444444445</v>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G6" t="s">
         <v>4</v>
@@ -641,14 +706,14 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="1">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.23611111111111113</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.23611111111111113</v>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
@@ -667,14 +732,14 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.27777777777777779</v>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="G8" t="s">
         <v>6</v>
@@ -693,14 +758,14 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="1">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.31944444444444448</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.31944444444444448</v>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="G9" t="s">
         <v>7</v>
@@ -719,14 +784,14 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.3611111111111111</v>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="G10" t="s">
         <v>8</v>
@@ -745,14 +810,14 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.40277777777777773</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.40277777777777773</v>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G11" t="s">
         <v>9</v>

--- a/public/uploads/parcours_resultats.xlsx
+++ b/public/uploads/parcours_resultats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\symfony-winter-contest\public\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A25509-2408-4ACF-89A4-CC65E4F9BD35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3685D695-3DA7-4B67-9207-A4F03B3D919F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="630" yWindow="495" windowWidth="22590" windowHeight="11415" xr2:uid="{A2BB81C9-9CA3-43A5-A119-25B82A2C596C}"/>
   </bookViews>
@@ -530,7 +530,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/uploads/parcours_resultats.xlsx
+++ b/public/uploads/parcours_resultats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\symfony-winter-contest\public\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3685D695-3DA7-4B67-9207-A4F03B3D919F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4FD87E-0C00-426E-A6BC-688BB9D6F7F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="495" windowWidth="22590" windowHeight="11415" xr2:uid="{A2BB81C9-9CA3-43A5-A119-25B82A2C596C}"/>
+    <workbookView xWindow="975" yWindow="840" windowWidth="22590" windowHeight="11415" xr2:uid="{A2BB81C9-9CA3-43A5-A119-25B82A2C596C}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -117,64 +117,64 @@
     <t>Bea</t>
   </si>
   <si>
-    <t>"00:50:05"</t>
-  </si>
-  <si>
-    <t>"01:00:00"</t>
-  </si>
-  <si>
-    <t>"02:00:00"</t>
-  </si>
-  <si>
-    <t>"03:00:00"</t>
-  </si>
-  <si>
-    <t>"04:00:00"</t>
-  </si>
-  <si>
-    <t>"05:00:00"</t>
-  </si>
-  <si>
-    <t>"06:00:00"</t>
-  </si>
-  <si>
-    <t>"07:00:00"</t>
-  </si>
-  <si>
-    <t>"08:00:00"</t>
-  </si>
-  <si>
-    <t>"09:00:00"</t>
-  </si>
-  <si>
-    <t>"01:50:00"</t>
-  </si>
-  <si>
-    <t>"01:40:00"</t>
-  </si>
-  <si>
-    <t>"02:40:00"</t>
-  </si>
-  <si>
-    <t>"03:40:00"</t>
-  </si>
-  <si>
-    <t>"04:40:00"</t>
-  </si>
-  <si>
-    <t>"05:40:00"</t>
-  </si>
-  <si>
-    <t>"06:40:00"</t>
-  </si>
-  <si>
-    <t>"07:40:00"</t>
-  </si>
-  <si>
-    <t>"08:40:00"</t>
-  </si>
-  <si>
-    <t>"09:40:00"</t>
+    <t>00:50:05</t>
+  </si>
+  <si>
+    <t>01:00:00</t>
+  </si>
+  <si>
+    <t>02:00:00</t>
+  </si>
+  <si>
+    <t>03:00:00</t>
+  </si>
+  <si>
+    <t>04:00:00</t>
+  </si>
+  <si>
+    <t>05:00:00</t>
+  </si>
+  <si>
+    <t>06:00:00</t>
+  </si>
+  <si>
+    <t>07:00:00</t>
+  </si>
+  <si>
+    <t>08:00:00</t>
+  </si>
+  <si>
+    <t>09:00:00</t>
+  </si>
+  <si>
+    <t>01:50:00</t>
+  </si>
+  <si>
+    <t>01:40:00</t>
+  </si>
+  <si>
+    <t>02:40:00</t>
+  </si>
+  <si>
+    <t>03:40:00</t>
+  </si>
+  <si>
+    <t>04:40:00</t>
+  </si>
+  <si>
+    <t>05:40:00</t>
+  </si>
+  <si>
+    <t>06:40:00</t>
+  </si>
+  <si>
+    <t>07:40:00</t>
+  </si>
+  <si>
+    <t>08:40:00</t>
+  </si>
+  <si>
+    <t>09:40:00</t>
   </si>
 </sst>
 </file>
@@ -530,7 +530,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
